--- a/Test_Data/WebAutomationTestData.xlsx
+++ b/Test_Data/WebAutomationTestData.xlsx
@@ -884,7 +884,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
